--- a/Documents/Files/Mob.xlsx
+++ b/Documents/Files/Mob.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sparta_Coding_Club\TeamProject\TextRPG_TeamProject2nd\TextRPG_TeamProject2nd\Documents\Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0DB87F-2762-4D59-8B74-078D296324AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28695" yWindow="-90" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -40,30 +49,192 @@
     <t>DEFENCE</t>
   </si>
   <si>
+    <t>3010|3011|4010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 슬라임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대 슬라임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 슬라임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>슬라임</t>
-  </si>
-  <si>
-    <t>0|1</t>
-  </si>
-  <si>
-    <t>1200|1000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대 늑대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방랑 늑대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹 슬라임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3010|3011|4010|3012|4011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀸 슬라임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 엠퍼러</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2101|2002|2003|2004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3011|3012|4011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000|3001|4000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200|2101|-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200|2100|-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달 늑대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>태양 늑대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤 늑대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성월 늑대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>암월랑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000|3001|4000|3002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000|3001|4000|3003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000|3001|4000|3004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002|3004|4000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3004|4001|4000|3001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2101|2000|2001|-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000|2001|2100|-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000|2001|2100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000|2001|2100|2002|2003|2004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002|2003|2004|2100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,36 +242,63 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -290,23 +488,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="2"/>
+    <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="42.7109375" style="2" customWidth="1"/>
+    <col min="5" max="9" width="12.5703125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -335,36 +542,446 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1">
+        <v>85</v>
+      </c>
+      <c r="I2" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
+        <v>135</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>135</v>
+      </c>
+      <c r="G4" s="2">
+        <v>170</v>
+      </c>
+      <c r="H4" s="2">
+        <v>120</v>
+      </c>
+      <c r="I4" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.0</v>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>165</v>
+      </c>
+      <c r="G5" s="2">
+        <v>220</v>
+      </c>
+      <c r="H5" s="2">
+        <v>145</v>
+      </c>
+      <c r="I5" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>250</v>
+      </c>
+      <c r="G6" s="2">
+        <v>320</v>
+      </c>
+      <c r="H6" s="2">
+        <v>120</v>
+      </c>
+      <c r="I6" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>250</v>
+      </c>
+      <c r="G7" s="2">
+        <v>320</v>
+      </c>
+      <c r="H7" s="2">
+        <v>200</v>
+      </c>
+      <c r="I7" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2">
+        <v>350</v>
+      </c>
+      <c r="G8" s="2">
+        <v>500</v>
+      </c>
+      <c r="H8" s="2">
+        <v>225</v>
+      </c>
+      <c r="I8" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>150</v>
+      </c>
+      <c r="G10" s="2">
+        <v>150</v>
+      </c>
+      <c r="H10" s="2">
+        <v>135</v>
+      </c>
+      <c r="I10" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>350</v>
+      </c>
+      <c r="G11" s="2">
+        <v>350</v>
+      </c>
+      <c r="H11" s="2">
+        <v>165</v>
+      </c>
+      <c r="I11" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2">
+        <v>275</v>
+      </c>
+      <c r="G12" s="2">
+        <v>275</v>
+      </c>
+      <c r="H12" s="2">
+        <v>215</v>
+      </c>
+      <c r="I12" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2">
+        <v>275</v>
+      </c>
+      <c r="G13" s="2">
+        <v>275</v>
+      </c>
+      <c r="H13" s="2">
+        <v>145</v>
+      </c>
+      <c r="I13" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="2">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>325</v>
+      </c>
+      <c r="G14" s="2">
+        <v>325</v>
+      </c>
+      <c r="H14" s="2">
+        <v>215</v>
+      </c>
+      <c r="I14" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="2">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2">
+        <v>350</v>
+      </c>
+      <c r="G15" s="2">
+        <v>350</v>
+      </c>
+      <c r="H15" s="2">
+        <v>225</v>
+      </c>
+      <c r="I15" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="2">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2">
+        <v>500</v>
+      </c>
+      <c r="G16" s="2">
+        <v>500</v>
+      </c>
+      <c r="H16" s="2">
+        <v>250</v>
+      </c>
+      <c r="I16" s="2">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
+    <sortCondition ref="A1:A13"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/Files/Mob.xlsx
+++ b/Documents/Files/Mob.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sparta_Coding_Club\TeamProject\TextRPG_TeamProject2nd\TextRPG_TeamProject2nd\Documents\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0DB87F-2762-4D59-8B74-078D296324AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E65946-079E-438C-BBF1-D410ABCCD731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-90" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -109,14 +109,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2200|2101|-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2200|2100|-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>달 늑대</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -174,6 +166,14 @@
   </si>
   <si>
     <t>2002|2003|2004|2100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2101|-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100|-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +502,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -513,7 +513,7 @@
     <col min="5" max="9" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
@@ -640,7 +640,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2">
         <v>8</v>
@@ -669,7 +669,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2">
         <v>12</v>
@@ -698,7 +698,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2">
         <v>12</v>
@@ -756,7 +756,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -785,7 +785,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2">
         <v>6</v>
@@ -814,7 +814,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
@@ -837,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
@@ -866,13 +866,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
@@ -895,13 +895,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2">
         <v>16</v>
@@ -924,13 +924,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2">
         <v>18</v>
@@ -953,13 +953,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2">
         <v>25</v>
